--- a/biology/Médecine/Mesmer_(film,_1994)/Mesmer_(film,_1994).xlsx
+++ b/biology/Médecine/Mesmer_(film,_1994)/Mesmer_(film,_1994).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesmer est un film multinational réalisé par Roger Spottiswoode, sorti en 1994. Il s'agit d'un film biographique sur la vie du médecin allemand Franz-Anton Mesmer.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Vienne, au XVIIIe siècle, Franz Anton Mesmer (Alan Rickman) soigne ses patients en pratiquant le magnétisme animal. Ce traitement semble uniquement fonctionner sur les jeunes femmes. Les méthodes du médecin acquièrent alors une mauvaise réputation et le contraignent à quitter Vienne pour rejoindre Paris. Mais une fois là-bas, les méthodes de Mesmer deviennent un véritable divertissement que d'autres médecins tentent de censurer.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Mesmer
 Réalisation : Roger Spottiswoode
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alan Rickman : Franz-Anton Mesmer
 Amanda Ooms : Maria Theresa Paradies
@@ -638,9 +656,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu en Hongrie (notamment le Palais Esterházy de Fertőd) et à Vienne en Autriche[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu en Hongrie (notamment le Palais Esterházy de Fertőd) et à Vienne en Autriche.
 </t>
         </is>
       </c>
@@ -670,6 +690,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -695,9 +717,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alan Rickman obtient le prix du meilleur acteur au festival des films du monde de Montréal 1994[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alan Rickman obtient le prix du meilleur acteur au festival des films du monde de Montréal 1994.
 </t>
         </is>
       </c>
